--- a/Table S2 Filtered tweets in the downtown area.xlsx
+++ b/Table S2 Filtered tweets in the downtown area.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shenghua/Documents/Social media for road related incidents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C456CF0-AE45-1D4A-BE72-1323093CCC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1198B481-CA72-AA48-A7C2-768A8E54D5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F1C397D8-4E09-452A-BF4A-E7A62C028D09}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{F1C397D8-4E09-452A-BF4A-E7A62C028D09}"/>
   </bookViews>
   <sheets>
     <sheet name="Tweets in a downtown area" sheetId="8" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="947">
   <si>
     <t>injury collision : s limestone past e maxwell st - the intersection is shutdown . avoid this area !,</t>
   </si>
@@ -2868,7 +2868,16 @@
     <t>non injury collisions : w main past buchanan st w main past forbes rd</t>
   </si>
   <si>
-    <t>Tweets in a constrained downtown area</t>
+    <t>[86, ['86-1','86-2']]</t>
+  </si>
+  <si>
+    <t>[218, [218-1]]</t>
+  </si>
+  <si>
+    <t>[130, [130-1]]</t>
+  </si>
+  <si>
+    <t>Tweets in a small downtown area</t>
   </si>
 </sst>
 </file>
@@ -2927,10 +2936,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3246,10 +3255,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6E98F0-D50E-6B4C-A2D2-0D9F34D40C7C}">
-  <dimension ref="A1:D404"/>
+  <dimension ref="A1:D405"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A363" zoomScale="68" workbookViewId="0">
+      <selection activeCell="B362" sqref="B362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3260,20 +3269,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>943</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="A1" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>861</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>471</v>
       </c>
     </row>
@@ -3285,7 +3294,7 @@
         <v>472</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>944</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D61" si="0">(LEN(B3)-LEN(SUBSTITUTE(B3,"predicate","")))/9</f>
@@ -4575,7 +4584,7 @@
         <v>555</v>
       </c>
       <c r="C89" t="s">
-        <v>32</v>
+        <v>945</v>
       </c>
       <c r="D89">
         <f t="shared" si="1"/>
@@ -4725,7 +4734,7 @@
         <v>564</v>
       </c>
       <c r="C99" t="s">
-        <v>35</v>
+        <v>943</v>
       </c>
       <c r="D99">
         <f t="shared" si="1"/>
@@ -9305,6 +9314,12 @@
       <c r="D404">
         <f t="shared" si="7"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D405">
+        <f>SUM(D3:D404)</f>
+        <v>1046</v>
       </c>
     </row>
   </sheetData>
